--- a/CO/CO_completed_output.xlsx
+++ b/CO/CO_completed_output.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">

--- a/CO/CO_completed_output.xlsx
+++ b/CO/CO_completed_output.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>04012025</t>
+          <t>040125</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
